--- a/documentatie/documenten/diagrammen/usecase_templates.xlsx
+++ b/documentatie/documenten/diagrammen/usecase_templates.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Youssef\Documents\GitKraken\Barroc-IT-Groep-2\documentatie\documenten\diagrammen\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\School\Periode_5\Project\Barroc-IT-Groep-2\documentatie\documenten\diagrammen\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9630"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="23040" windowHeight="9630" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -92,9 +92,6 @@
     <t>medewerker moet ingelogd zijn en op de afdeling werken.</t>
   </si>
   <si>
-    <t>medewerkers</t>
-  </si>
-  <si>
     <t>inloggegevens werken niet</t>
   </si>
   <si>
@@ -105,13 +102,16 @@
   </si>
   <si>
     <t>project toegevoegd en terug gelinkt naar het begin sherm</t>
+  </si>
+  <si>
+    <t>medewerker</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -129,6 +129,20 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -196,17 +210,18 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Goed" xfId="1" builtinId="26"/>
@@ -522,183 +537,184 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="22.28515625" customWidth="1"/>
-    <col min="4" max="4" width="56.140625" customWidth="1"/>
-    <col min="5" max="5" width="116.7109375" customWidth="1"/>
-    <col min="6" max="6" width="44.5703125" customWidth="1"/>
-    <col min="7" max="7" width="28.85546875" customWidth="1"/>
-    <col min="8" max="8" width="57.42578125" customWidth="1"/>
+    <col min="1" max="3" width="22.28515625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="56.140625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="116.7109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="44.5703125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="28.85546875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="57.42578125" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="2">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="4" t="s">
         <v>21</v>
       </c>
       <c r="E2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="F2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" t="s">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H3" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="2">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="D4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="F4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
+      <c r="A5" s="3"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
+      <c r="A6" s="3"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
+      <c r="A7" s="3"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
+      <c r="A8" s="3"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
+      <c r="A9" s="3"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
+      <c r="A10" s="3"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
+      <c r="A11" s="3"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
+      <c r="A12" s="3"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
+      <c r="A13" s="3"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
+      <c r="A14" s="3"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
+      <c r="A15" s="3"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
+      <c r="A16" s="3"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
+      <c r="A17" s="3"/>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
+      <c r="A18" s="3"/>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
+      <c r="A19" s="3"/>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
+      <c r="A20" s="3"/>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="4"/>
+      <c r="A21" s="3"/>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
+      <c r="A22" s="3"/>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="4"/>
+      <c r="A23" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
